--- a/Python/resultados/HW_C015_120.xlsx
+++ b/Python/resultados/HW_C015_120.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.03125</v>
+        <v>28.03289724445905</v>
       </c>
       <c r="C2" t="n">
-        <v>32.03125</v>
+        <v>32.03521104997676</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.03125</v>
+        <v>28.02402150655753</v>
       </c>
       <c r="C3" t="n">
-        <v>32.03125</v>
+        <v>32.02774222237985</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.0625</v>
+        <v>28.06397885516832</v>
       </c>
       <c r="C4" t="n">
-        <v>32.03125</v>
+        <v>32.02566237327959</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.046875</v>
+        <v>28.04559960676314</v>
       </c>
       <c r="C5" t="n">
-        <v>32.03125</v>
+        <v>32.03137073415905</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0625</v>
+        <v>28.06544961391636</v>
       </c>
       <c r="C6" t="n">
-        <v>32.03125</v>
+        <v>32.04576543443483</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.015625</v>
+        <v>28.01649177841737</v>
       </c>
       <c r="C7" t="n">
-        <v>32.0625</v>
+        <v>32.0604917141047</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.015625</v>
+        <v>28.01050955852516</v>
       </c>
       <c r="C8" t="n">
-        <v>32.03125</v>
+        <v>32.0332303979655</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.03125</v>
+        <v>28.0358036116714</v>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>32.00646902971704</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.03125</v>
+        <v>28.02719759364472</v>
       </c>
       <c r="C10" t="n">
-        <v>32.03125</v>
+        <v>32.0295632113321</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.015625</v>
+        <v>28.01096102671006</v>
       </c>
       <c r="C11" t="n">
-        <v>32.03125</v>
+        <v>32.02434577756094</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.03125</v>
+        <v>28.03329103958331</v>
       </c>
       <c r="C12" t="n">
-        <v>32.03125</v>
+        <v>32.03198519449104</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.765625</v>
+        <v>19.75954491992771</v>
       </c>
       <c r="C2" t="n">
-        <v>27.84375</v>
+        <v>27.84081840500972</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.765625</v>
+        <v>19.75833669518123</v>
       </c>
       <c r="C3" t="n">
-        <v>27.890625</v>
+        <v>27.88855561236787</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.78125</v>
+        <v>19.7777209926506</v>
       </c>
       <c r="C4" t="n">
-        <v>27.859375</v>
+        <v>27.8581762917387</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.75</v>
+        <v>19.74459938929837</v>
       </c>
       <c r="C5" t="n">
-        <v>27.859375</v>
+        <v>27.8538310412284</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.78125</v>
+        <v>19.78019019738306</v>
       </c>
       <c r="C6" t="n">
-        <v>27.859375</v>
+        <v>27.8666740546728</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.765625</v>
+        <v>19.76075453026992</v>
       </c>
       <c r="C7" t="n">
-        <v>27.859375</v>
+        <v>27.8591445594299</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.75</v>
+        <v>19.74603659907749</v>
       </c>
       <c r="C8" t="n">
-        <v>27.859375</v>
+        <v>27.86647198654626</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.78125</v>
+        <v>19.78123811670433</v>
       </c>
       <c r="C9" t="n">
-        <v>27.859375</v>
+        <v>27.86685564465053</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.78125</v>
+        <v>19.77851296963624</v>
       </c>
       <c r="C10" t="n">
-        <v>27.875</v>
+        <v>27.87266560763447</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.765625</v>
+        <v>19.75861105373862</v>
       </c>
       <c r="C11" t="n">
-        <v>27.875</v>
+        <v>27.88207309219497</v>
       </c>
     </row>
     <row r="12">
@@ -734,10 +735,169 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.765625</v>
+        <v>19.76455454638676</v>
       </c>
       <c r="C12" t="n">
-        <v>27.859375</v>
+        <v>27.86552662954736</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Noisy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NLM-LBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.84047174119649</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23.8749351118176</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.83749718817578</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.8859531526324</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.83905784671976</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23.82463860891088</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.8387158888531</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23.81569066156587</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.84219329810063</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.87797679000558</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.85473289570397</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.85789115049292</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.82586493849476</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23.79051817932234</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.84753264003469</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.8534617691277</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.8408614644039</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23.86461532514861</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.81055092772705</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.81844855669033</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.83774788294101</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.84641293057142</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C015_120.xlsx
+++ b/Python/resultados/HW_C015_120.xlsx
@@ -461,112 +461,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>28.03289724445905</v>
+        <v>27.97007004671944</v>
       </c>
       <c r="C2" t="n">
-        <v>32.03521104997676</v>
+        <v>31.68867800851428</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.02402150655753</v>
+        <v>28.03449121931777</v>
       </c>
       <c r="C3" t="n">
-        <v>32.02774222237985</v>
+        <v>31.69046039505187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.06397885516832</v>
+        <v>28.01252619555745</v>
       </c>
       <c r="C4" t="n">
-        <v>32.02566237327959</v>
+        <v>31.65603535047414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.04559960676314</v>
+        <v>27.97261962171509</v>
       </c>
       <c r="C5" t="n">
-        <v>32.03137073415905</v>
+        <v>31.67257253726252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.06544961391636</v>
+        <v>27.99611430079139</v>
       </c>
       <c r="C6" t="n">
-        <v>32.04576543443483</v>
+        <v>31.71361694200338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.01649177841737</v>
+        <v>28.04799599133151</v>
       </c>
       <c r="C7" t="n">
-        <v>32.0604917141047</v>
+        <v>31.71961988311895</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>28.01050955852516</v>
+        <v>27.99942927596777</v>
       </c>
       <c r="C8" t="n">
-        <v>32.0332303979655</v>
+        <v>31.7035024573028</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.0358036116714</v>
+        <v>28.01599650206708</v>
       </c>
       <c r="C9" t="n">
-        <v>32.00646902971704</v>
+        <v>31.70416323438609</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.02719759364472</v>
+        <v>27.98671635152283</v>
       </c>
       <c r="C10" t="n">
-        <v>32.0295632113321</v>
+        <v>31.69690310223311</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.01096102671006</v>
+        <v>27.98420113361988</v>
       </c>
       <c r="C11" t="n">
-        <v>32.02434577756094</v>
+        <v>31.677339656012</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.03329103958331</v>
+        <v>28.00201606386102</v>
       </c>
       <c r="C12" t="n">
-        <v>32.03198519449104</v>
+        <v>31.69228915663592</v>
       </c>
     </row>
   </sheetData>
@@ -620,112 +620,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.75954491992771</v>
+        <v>19.76205740453999</v>
       </c>
       <c r="C2" t="n">
-        <v>27.84081840500972</v>
+        <v>27.74693997578355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.75833669518123</v>
+        <v>19.73664198286686</v>
       </c>
       <c r="C3" t="n">
-        <v>27.88855561236787</v>
+        <v>27.67832990789309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.7777209926506</v>
+        <v>19.76095486155358</v>
       </c>
       <c r="C4" t="n">
-        <v>27.8581762917387</v>
+        <v>27.72475059421731</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.74459938929837</v>
+        <v>19.74063659989309</v>
       </c>
       <c r="C5" t="n">
-        <v>27.8538310412284</v>
+        <v>27.67851551070935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.78019019738306</v>
+        <v>19.75833044360287</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8666740546728</v>
+        <v>27.69141399864551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.76075453026992</v>
+        <v>19.76292998557473</v>
       </c>
       <c r="C7" t="n">
-        <v>27.8591445594299</v>
+        <v>27.72473321257943</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.74603659907749</v>
+        <v>19.75873829569051</v>
       </c>
       <c r="C8" t="n">
-        <v>27.86647198654626</v>
+        <v>27.72685943865804</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.78123811670433</v>
+        <v>19.7618823372115</v>
       </c>
       <c r="C9" t="n">
-        <v>27.86685564465053</v>
+        <v>27.67550658962473</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.77851296963624</v>
+        <v>19.74532170726462</v>
       </c>
       <c r="C10" t="n">
-        <v>27.87266560763447</v>
+        <v>27.71328803654262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.75861105373862</v>
+        <v>19.767482925493</v>
       </c>
       <c r="C11" t="n">
-        <v>27.88207309219497</v>
+        <v>27.74172195830554</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.76455454638676</v>
+        <v>19.75549765436907</v>
       </c>
       <c r="C12" t="n">
-        <v>27.86552662954736</v>
+        <v>27.71020592229592</v>
       </c>
     </row>
   </sheetData>
@@ -779,112 +779,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.84047174119649</v>
+        <v>14.76077522084448</v>
       </c>
       <c r="C2" t="n">
-        <v>23.8749351118176</v>
+        <v>23.72092076782851</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.83749718817578</v>
+        <v>14.77326372306804</v>
       </c>
       <c r="C3" t="n">
-        <v>23.8859531526324</v>
+        <v>23.76438411778874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.83905784671976</v>
+        <v>14.76042299534725</v>
       </c>
       <c r="C4" t="n">
-        <v>23.82463860891088</v>
+        <v>23.75829417070175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8387158888531</v>
+        <v>14.76488345217772</v>
       </c>
       <c r="C5" t="n">
-        <v>23.81569066156587</v>
+        <v>23.77154423494819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.84219329810063</v>
+        <v>14.78040284802067</v>
       </c>
       <c r="C6" t="n">
-        <v>23.87797679000558</v>
+        <v>23.75036952552434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.85473289570397</v>
+        <v>14.77004262157685</v>
       </c>
       <c r="C7" t="n">
-        <v>23.85789115049292</v>
+        <v>23.75436706937219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.82586493849476</v>
+        <v>14.79261972188354</v>
       </c>
       <c r="C8" t="n">
-        <v>23.79051817932234</v>
+        <v>23.77086714609264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.84753264003469</v>
+        <v>14.75452863854599</v>
       </c>
       <c r="C9" t="n">
-        <v>23.8534617691277</v>
+        <v>23.80531403503588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.8408614644039</v>
+        <v>14.77067442157021</v>
       </c>
       <c r="C10" t="n">
-        <v>23.86461532514861</v>
+        <v>23.77261367942483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.81055092772705</v>
+        <v>14.7860912511361</v>
       </c>
       <c r="C11" t="n">
-        <v>23.81844855669033</v>
+        <v>23.80259942904271</v>
       </c>
     </row>
     <row r="12">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.83774788294101</v>
+        <v>14.77137048941708</v>
       </c>
       <c r="C12" t="n">
-        <v>23.84641293057142</v>
+        <v>23.76712741757598</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C015_120.xlsx
+++ b/Python/resultados/HW_C015_120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       <c r="C2" t="n">
         <v>31.68867800851428</v>
       </c>
+      <c r="D2" t="n">
+        <v>31.33361211604183</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,6 +488,9 @@
       <c r="C3" t="n">
         <v>31.69046039505187</v>
       </c>
+      <c r="D3" t="n">
+        <v>31.31404328091021</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +502,9 @@
       <c r="C4" t="n">
         <v>31.65603535047414</v>
       </c>
+      <c r="D4" t="n">
+        <v>31.29707145892847</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +516,9 @@
       <c r="C5" t="n">
         <v>31.67257253726252</v>
       </c>
+      <c r="D5" t="n">
+        <v>31.32026157553185</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -513,6 +530,9 @@
       <c r="C6" t="n">
         <v>31.71361694200338</v>
       </c>
+      <c r="D6" t="n">
+        <v>31.35051309330456</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -524,6 +544,9 @@
       <c r="C7" t="n">
         <v>31.71961988311895</v>
       </c>
+      <c r="D7" t="n">
+        <v>31.32997560522154</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>31.7035024573028</v>
       </c>
+      <c r="D8" t="n">
+        <v>31.31471976854444</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>31.70416323438609</v>
       </c>
+      <c r="D9" t="n">
+        <v>31.35069735491461</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>31.69690310223311</v>
       </c>
+      <c r="D10" t="n">
+        <v>31.33796847302048</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>31.677339656012</v>
       </c>
+      <c r="D11" t="n">
+        <v>31.28355415704822</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       </c>
       <c r="C12" t="n">
         <v>31.69228915663592</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31.32324168834662</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +655,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +671,9 @@
       <c r="C2" t="n">
         <v>27.74693997578355</v>
       </c>
+      <c r="D2" t="n">
+        <v>26.60570378014476</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,6 +685,9 @@
       <c r="C3" t="n">
         <v>27.67832990789309</v>
       </c>
+      <c r="D3" t="n">
+        <v>26.53567272190522</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +699,9 @@
       <c r="C4" t="n">
         <v>27.72475059421731</v>
       </c>
+      <c r="D4" t="n">
+        <v>26.56138463987704</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -661,6 +713,9 @@
       <c r="C5" t="n">
         <v>27.67851551070935</v>
       </c>
+      <c r="D5" t="n">
+        <v>26.52736424891235</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,6 +727,9 @@
       <c r="C6" t="n">
         <v>27.69141399864551</v>
       </c>
+      <c r="D6" t="n">
+        <v>26.53013464712095</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +741,9 @@
       <c r="C7" t="n">
         <v>27.72473321257943</v>
       </c>
+      <c r="D7" t="n">
+        <v>26.54847321894197</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,6 +755,9 @@
       <c r="C8" t="n">
         <v>27.72685943865804</v>
       </c>
+      <c r="D8" t="n">
+        <v>26.5383827823074</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,6 +769,9 @@
       <c r="C9" t="n">
         <v>27.67550658962473</v>
       </c>
+      <c r="D9" t="n">
+        <v>26.50432811512846</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -716,6 +783,9 @@
       <c r="C10" t="n">
         <v>27.71328803654262</v>
       </c>
+      <c r="D10" t="n">
+        <v>26.55535286085061</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,6 +797,9 @@
       <c r="C11" t="n">
         <v>27.74172195830554</v>
       </c>
+      <c r="D11" t="n">
+        <v>26.57378176275287</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,6 +812,9 @@
       </c>
       <c r="C12" t="n">
         <v>27.71020592229592</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.54805787779416</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +852,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +868,9 @@
       <c r="C2" t="n">
         <v>23.72092076782851</v>
       </c>
+      <c r="D2" t="n">
+        <v>22.50613384373906</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +882,9 @@
       <c r="C3" t="n">
         <v>23.76438411778874</v>
       </c>
+      <c r="D3" t="n">
+        <v>22.54767257107202</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -809,6 +896,9 @@
       <c r="C4" t="n">
         <v>23.75829417070175</v>
       </c>
+      <c r="D4" t="n">
+        <v>22.54513673573027</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,6 +910,9 @@
       <c r="C5" t="n">
         <v>23.77154423494819</v>
       </c>
+      <c r="D5" t="n">
+        <v>22.54735428435365</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -831,6 +924,9 @@
       <c r="C6" t="n">
         <v>23.75036952552434</v>
       </c>
+      <c r="D6" t="n">
+        <v>22.55654884309794</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,6 +938,9 @@
       <c r="C7" t="n">
         <v>23.75436706937219</v>
       </c>
+      <c r="D7" t="n">
+        <v>22.57061851273786</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -853,6 +952,9 @@
       <c r="C8" t="n">
         <v>23.77086714609264</v>
       </c>
+      <c r="D8" t="n">
+        <v>22.54859328311465</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -864,6 +966,9 @@
       <c r="C9" t="n">
         <v>23.80531403503588</v>
       </c>
+      <c r="D9" t="n">
+        <v>22.60773006826255</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -875,6 +980,9 @@
       <c r="C10" t="n">
         <v>23.77261367942483</v>
       </c>
+      <c r="D10" t="n">
+        <v>22.55616868967738</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -886,6 +994,9 @@
       <c r="C11" t="n">
         <v>23.80259942904271</v>
       </c>
+      <c r="D11" t="n">
+        <v>22.59067259964045</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +1009,9 @@
       </c>
       <c r="C12" t="n">
         <v>23.76712741757598</v>
+      </c>
+      <c r="D12" t="n">
+        <v>22.55766294314258</v>
       </c>
     </row>
   </sheetData>
